--- a/results/BINARY/unpooled_significance_summaries.xlsx
+++ b/results/BINARY/unpooled_significance_summaries.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="11">
   <si>
     <t>Tier1,WHO</t>
   </si>
@@ -46,19 +46,22 @@
     <t>regression_confidence</t>
   </si>
   <si>
-    <t>Assoc w R</t>
-  </si>
-  <si>
     <t>Assoc w R - strict</t>
-  </si>
-  <si>
-    <t>Assoc w S</t>
   </si>
   <si>
     <t>Assoc w S - strict</t>
   </si>
   <si>
-    <t>Evidence against Assoc</t>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Possible Assoc w R</t>
+  </si>
+  <si>
+    <t>Possible Assoc w S</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +447,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,16 +481,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,16 +498,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,16 +515,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>608</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>286</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>931</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>676</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>566</v>
+      </c>
+      <c r="C7">
+        <v>282</v>
+      </c>
+      <c r="D7">
+        <v>884</v>
+      </c>
+      <c r="E7">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +551,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,16 +579,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -576,16 +596,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -593,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -610,16 +630,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -627,16 +647,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>643</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>726</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>1162</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>371</v>
+      </c>
+      <c r="C7">
+        <v>634</v>
+      </c>
+      <c r="D7">
+        <v>699</v>
+      </c>
+      <c r="E7">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -674,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -691,16 +728,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -708,13 +745,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -725,13 +762,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -742,16 +779,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>370</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>667</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>363</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>666</v>
+      </c>
+      <c r="E7">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +815,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -789,16 +843,16 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
       <c r="E2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -806,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -823,16 +877,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -840,16 +894,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,16 +911,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>630</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>987</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>304</v>
+      </c>
+      <c r="C7">
+        <v>491</v>
+      </c>
+      <c r="D7">
+        <v>623</v>
+      </c>
+      <c r="E7">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +947,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -938,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -955,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -972,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -981,6 +1052,23 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -991,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1019,16 +1107,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1036,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1053,16 +1141,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1070,16 +1158,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1087,16 +1175,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>971</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>334</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>997</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>317</v>
+      </c>
+      <c r="C7">
+        <v>948</v>
+      </c>
+      <c r="D7">
+        <v>331</v>
+      </c>
+      <c r="E7">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1151,16 +1256,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1168,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1185,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1202,16 +1307,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>661</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>2701</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>769</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3258</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>656</v>
+      </c>
+      <c r="C7">
+        <v>2682</v>
+      </c>
+      <c r="D7">
+        <v>766</v>
+      </c>
+      <c r="E7">
+        <v>3238</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,16 +1371,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1266,13 +1388,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1283,16 +1405,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1300,16 +1422,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1317,16 +1439,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1228</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>418</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>1442</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>570</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1128</v>
+      </c>
+      <c r="C7">
+        <v>411</v>
+      </c>
+      <c r="D7">
+        <v>1380</v>
+      </c>
+      <c r="E7">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1364,16 +1503,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1381,16 +1520,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1398,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1415,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1432,16 +1571,33 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>59</v>
       </c>
-      <c r="D6">
-        <v>481</v>
-      </c>
-      <c r="E6">
-        <v>401</v>
+      <c r="D7">
+        <v>479</v>
+      </c>
+      <c r="E7">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1479,16 +1635,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1496,16 +1652,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1513,16 +1669,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1530,16 +1686,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1547,16 +1703,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>998</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>690</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1392</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>496</v>
+      </c>
+      <c r="C7">
+        <v>896</v>
+      </c>
+      <c r="D7">
+        <v>625</v>
+      </c>
+      <c r="E7">
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1594,16 +1767,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1611,13 +1784,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1628,16 +1801,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1645,16 +1818,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1662,16 +1835,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>327</v>
+      </c>
+      <c r="C7">
+        <v>194</v>
+      </c>
+      <c r="D7">
         <v>754</v>
       </c>
-      <c r="E6">
-        <v>476</v>
+      <c r="E7">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1709,13 +1899,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1732,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1752,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1760,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1777,16 +1967,33 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>61</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>463</v>
-      </c>
-      <c r="E6">
-        <v>111</v>
+      <c r="D7">
+        <v>461</v>
+      </c>
+      <c r="E7">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1824,16 +2031,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1841,16 +2048,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1858,16 +2065,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1875,16 +2082,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1892,16 +2099,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2194</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>1551</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>2634</v>
+        <v>83</v>
       </c>
       <c r="E6">
-        <v>1911</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2163</v>
+      </c>
+      <c r="C7">
+        <v>1515</v>
+      </c>
+      <c r="D7">
+        <v>2565</v>
+      </c>
+      <c r="E7">
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1939,16 +2163,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1956,16 +2180,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1973,16 +2197,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1990,16 +2214,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2007,16 +2231,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>877</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>811</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>422</v>
+      </c>
+      <c r="C7">
+        <v>321</v>
+      </c>
+      <c r="D7">
+        <v>870</v>
+      </c>
+      <c r="E7">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2054,16 +2295,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2071,16 +2312,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2088,16 +2329,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2105,16 +2346,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2122,16 +2363,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1044</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>2939</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>1316</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>3648</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1042</v>
+      </c>
+      <c r="C7">
+        <v>2901</v>
+      </c>
+      <c r="D7">
+        <v>1310</v>
+      </c>
+      <c r="E7">
+        <v>3612</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2169,16 +2427,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2186,16 +2444,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2203,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2220,16 +2478,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2237,16 +2495,33 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>592</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>291</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>925</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>709</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>519</v>
+      </c>
+      <c r="C7">
+        <v>288</v>
+      </c>
+      <c r="D7">
+        <v>920</v>
+      </c>
+      <c r="E7">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
